--- a/InputData/trans/BPHEVSP/BAU PHEV Subsidy Perc.xlsx
+++ b/InputData/trans/BPHEVSP/BAU PHEV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\State Models\eps-newyork\InputData\trans\BPHEVSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\trans\BPHEVSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87F57D13-A26B-4F8A-996A-C5F7AC257EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{259CEE55-BF70-4F67-A200-04AFB34F929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="14400" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="193">
   <si>
     <t>Sources:</t>
   </si>
@@ -355,6 +355,267 @@
   <si>
     <t>Subsidy goes up to 2000 based on battery &amp; price</t>
   </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
 </sst>
 </file>
 
@@ -368,7 +629,7 @@
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +695,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF403F41"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF403F41"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -464,7 +744,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -509,6 +789,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -865,148 +1156,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="70.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.86328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="32">
+        <v>45051</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="B2" s="30" t="str">
+        <f>LOOKUP(B1,F2:G51,G2:G51)</f>
+        <v>CO</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F3" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F4" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F5" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F6" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B7" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F7" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F8" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F9" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B10" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F10" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B11" s="3">
         <v>2022</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F12" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F13" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F14" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B15" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F15" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B16" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F16" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B17" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F17" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F18" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F19" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F20" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B21" s="3">
         <v>2022</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F21" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F22" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F23" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F24" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F25" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F26" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F27" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F28" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F29" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F30" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="F31" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F32" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="59" x14ac:dyDescent="0.75">
       <c r="A33" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B33">
         <v>0.88711067149387013</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="F33" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F34" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F35" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F36" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F37" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F38" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F39" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F40" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F41" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F42" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F43" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F44" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F45" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F46" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F47" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F48" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F49" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F50" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F51" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1021,23 +1679,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB5E61F-7942-4515-8229-A2210CA98666}">
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="45.36328125" customWidth="1"/>
+    <col min="1" max="1" width="45.40625" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1132,7 +1790,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" s="2">
         <f>'Baseline Calculations'!C104</f>
         <v>7491.2019000999289</v>
@@ -1258,31 +1916,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="18"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" s="17" t="s">
         <v>46</v>
       </c>
@@ -1291,7 +1949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" s="17" t="s">
         <v>48</v>
       </c>
@@ -1300,13 +1958,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="17"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +2002,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" s="17" t="s">
         <v>44</v>
       </c>
@@ -1355,31 +2013,31 @@
         <v>53</v>
       </c>
       <c r="D13" s="17">
-        <v>4750</v>
+        <v>2500</v>
       </c>
       <c r="E13" s="17">
-        <v>4750</v>
+        <v>2500</v>
       </c>
       <c r="F13" s="17">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="G13" s="17">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H13" s="17">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="I13" s="17">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="J13" s="17">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" s="17" t="s">
         <v>55</v>
       </c>
@@ -1415,7 +2073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
@@ -1426,28 +2084,28 @@
         <v>53</v>
       </c>
       <c r="D15" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="17">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="17" t="s">
         <v>58</v>
       </c>
@@ -1484,7 +2142,7 @@
       <c r="L16" s="20"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="17" t="s">
         <v>59</v>
       </c>
@@ -1498,10 +2156,10 @@
         <v>2500</v>
       </c>
       <c r="E17" s="17">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F17" s="17">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G17" s="17">
         <v>0</v>
@@ -1520,7 +2178,7 @@
       </c>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="17" t="s">
         <v>61</v>
       </c>
@@ -1531,28 +2189,28 @@
         <v>53</v>
       </c>
       <c r="D18" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="17">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="17">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A19" s="17" t="s">
         <v>62</v>
       </c>
@@ -1584,7 +2242,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A20" s="17" t="s">
         <v>63</v>
       </c>
@@ -1616,7 +2274,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="17" t="s">
         <v>64</v>
       </c>
@@ -1627,28 +2285,28 @@
         <v>53</v>
       </c>
       <c r="D21" s="17">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E21" s="17">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F21" s="17">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G21" s="17">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H21" s="17">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I21" s="17">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J21" s="17">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="17" t="s">
         <v>65</v>
       </c>
@@ -1659,28 +2317,28 @@
         <v>53</v>
       </c>
       <c r="D22" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="G22" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H22" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="I22" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="J22" s="17">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="17" t="s">
         <v>66</v>
       </c>
@@ -1691,28 +2349,28 @@
         <v>53</v>
       </c>
       <c r="D23" s="17">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="E23" s="17">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F23" s="17">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G23" s="17">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H23" s="17">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="I23" s="17">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="J23" s="17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="17" t="s">
         <v>67</v>
       </c>
@@ -1723,28 +2381,28 @@
         <v>53</v>
       </c>
       <c r="D24" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F24" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H24" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="I24" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="J24" s="17">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="17" t="s">
         <v>68</v>
       </c>
@@ -1755,31 +2413,31 @@
         <v>53</v>
       </c>
       <c r="D25" s="17">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E25" s="17">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F25" s="17">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G25" s="17">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H25" s="17">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="I25" s="17">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="J25" s="17">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A26" s="17" t="s">
         <v>71</v>
       </c>
@@ -1810,7 +2468,7 @@
       </c>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A27" s="17" t="s">
         <v>70</v>
       </c>
@@ -1818,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1830,20 +2488,24 @@
       <c r="I28" s="17"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B31" t="str">
+        <f>About!B2</f>
+        <v>CO</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.75">
       <c r="C32">
         <v>2020</v>
       </c>
@@ -1938,132 +2600,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.75">
       <c r="C33" s="2">
-        <f t="shared" ref="C33" si="1">SUMPRODUCT(D13:D26,$B$13:$B$26)/SUM($B$13:$B$26)</f>
-        <v>500</v>
+        <f>SUMIFS(D$13:D$26,$A$13:$A$26,$B$31)</f>
+        <v>2500</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33" si="2">SUMPRODUCT(E13:E26,$B$13:$B$26)/SUM($B$13:$B$26)</f>
-        <v>500</v>
+        <f t="shared" ref="D33:I33" si="1">SUMIFS(E$13:E$26,$A$13:$A$26,$B$31)</f>
+        <v>2500</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ref="E33" si="3">SUMPRODUCT(F13:F26,$B$13:$B$26)/SUM($B$13:$B$26)</f>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" ref="F33" si="4">SUMPRODUCT(G13:G26,$B$13:$B$26)/SUM($B$13:$B$26)</f>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" ref="G33:I33" si="5">SUMPRODUCT(H13:H26,$B$13:$B$26)/SUM($B$13:$B$26)</f>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" ref="K33:AG33" si="6">J33</f>
+        <f t="shared" ref="K33:AG33" si="2">J33</f>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG33" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -2099,15 +2761,15 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A36" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.75">
       <c r="C37">
         <v>2020</v>
       </c>
@@ -2202,35 +2864,35 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.75">
       <c r="B38" s="2"/>
       <c r="C38" s="2">
         <f>(A3+C33)*About!$B$33</f>
-        <v>7089.0804836407387</v>
+        <v>8863.301826628478</v>
       </c>
       <c r="D38" s="2">
         <f>(B3+D33)*About!$B$33</f>
-        <v>7096.2738526461635</v>
+        <v>8870.4951956339028</v>
       </c>
       <c r="E38" s="2">
         <f>(C3+E33)*About!$B$33</f>
-        <v>4060.6060287258383</v>
+        <v>5834.8273717135789</v>
       </c>
       <c r="F38" s="2">
         <f>(D3+F33)*About!$B$33</f>
-        <v>1866.417433175201</v>
+        <v>3197.0834404160064</v>
       </c>
       <c r="G38" s="2">
         <f>(E3+G33)*About!$B$33</f>
-        <v>1282.0199650437494</v>
+        <v>2612.6859722845547</v>
       </c>
       <c r="H38" s="2">
         <f>(F3+H33)*About!$B$33</f>
-        <v>864.64370703529585</v>
+        <v>2195.3097142761012</v>
       </c>
       <c r="I38" s="2">
         <f>(G3+I33)*About!$B$33</f>
-        <v>744.07885409868288</v>
+        <v>2074.7448613394881</v>
       </c>
       <c r="J38" s="2">
         <f>(H3+J33)*About!$B$33</f>
@@ -2329,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2427,7 +3089,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -2525,12 +3187,12 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.75">
       <c r="C44">
         <v>2020</v>
       </c>
@@ -2625,135 +3287,135 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7">
         <f>C38/B41</f>
-        <v>0.19218891947190639</v>
+        <v>0.24028904805694512</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" ref="D45:AG45" si="7">D38/C41</f>
-        <v>0.19006009729346662</v>
+        <f t="shared" ref="D45:AG45" si="3">D38/C41</f>
+        <v>0.23757921621003034</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.10877885902986521</v>
+        <f t="shared" si="3"/>
+        <v>0.15630816179682228</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="7"/>
-        <v>4.976715017932435E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.5248738512012548E-2</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="7"/>
-        <v>3.4168975614172425E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.9634487534236539E-2</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="7"/>
-        <v>2.2975067944818406E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.8333148596378309E-2</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="7"/>
-        <v>1.9751509187159771E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.5073923904743263E-2</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.972080493189055E-3</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.9634193214199959E-3</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.9516197902245803E-3</v>
       </c>
       <c r="M45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.9377580124603223E-3</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.9224822279215408E-3</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.4493098638198163E-3</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.9230098371081726E-3</v>
       </c>
       <c r="Q45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1.5268255803143347E-3</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.042440593046421E-4</v>
       </c>
       <c r="S45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.7969311125697645E-5</v>
       </c>
       <c r="T45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.7924474237160522E-5</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.7904110875978027E-5</v>
       </c>
       <c r="V45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.7889862854445594E-5</v>
       </c>
       <c r="W45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.7900039480808213E-5</v>
       </c>
       <c r="X45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.790003948080824E-5</v>
       </c>
       <c r="Y45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.7910218766753334E-5</v>
       </c>
       <c r="Z45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.7934659910358932E-5</v>
       </c>
       <c r="AA45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.7959116393594405E-5</v>
       </c>
       <c r="AB45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.7983588230905353E-5</v>
       </c>
       <c r="AC45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.8012158132910721E-5</v>
       </c>
       <c r="AD45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.8032578025626903E-5</v>
       </c>
       <c r="AE45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.8050965071110089E-5</v>
       </c>
       <c r="AF45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.9274477036873986E-5</v>
       </c>
       <c r="AG45" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.75">
       <c r="B57" s="10"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2784,26 +3446,26 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" customWidth="1"/>
+    <col min="1" max="1" width="51.86328125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="36.453125" customWidth="1"/>
+    <col min="3" max="3" width="36.40625" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.40625" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
       <c r="D1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="B2">
         <v>2020</v>
       </c>
@@ -2898,7 +3560,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3028,7 +3690,7 @@
       </c>
       <c r="AG3" s="11"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -3158,7 +3820,7 @@
       </c>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3288,7 +3950,7 @@
       </c>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3418,7 +4080,7 @@
       </c>
       <c r="AG6" s="11"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3548,7 +4210,7 @@
       </c>
       <c r="AG7" s="11"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -3678,7 +4340,7 @@
       </c>
       <c r="AG8" s="11"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -3808,7 +4470,7 @@
       </c>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3938,7 +4600,7 @@
       </c>
       <c r="AG10" s="11"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4068,7 +4730,7 @@
       </c>
       <c r="AG11" s="11"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4198,7 +4860,7 @@
       </c>
       <c r="AG12" s="11"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4328,7 +4990,7 @@
       </c>
       <c r="AG13" s="11"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -4458,7 +5120,7 @@
       </c>
       <c r="AG14" s="11"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4590,7 +5252,7 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -4722,7 +5384,7 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -4854,7 +5516,7 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -4986,7 +5648,7 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -5118,7 +5780,7 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -5250,7 +5912,7 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -5382,7 +6044,7 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -5514,7 +6176,7 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -5646,7 +6308,7 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -5778,7 +6440,7 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.75">
       <c r="B25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -5807,12 +6469,12 @@
       <c r="AG25" s="12"/>
       <c r="AH25" s="12"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A26" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5910,7 +6572,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -6008,7 +6670,7 @@
         <v>11670000</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -6106,7 +6768,7 @@
         <v>1016090</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
@@ -6204,7 +6866,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -6335,7 +6997,7 @@
       <c r="AG32" s="11"/>
       <c r="AH32" s="11"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -6466,7 +7128,7 @@
       <c r="AG33" s="11"/>
       <c r="AH33" s="11"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -6597,7 +7259,7 @@
       <c r="AG34" s="11"/>
       <c r="AH34" s="11"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -6728,7 +7390,7 @@
       <c r="AG35" s="11"/>
       <c r="AH35" s="11"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -6859,7 +7521,7 @@
       <c r="AG36" s="11"/>
       <c r="AH36" s="11"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -6990,7 +7652,7 @@
       <c r="AG37" s="11"/>
       <c r="AH37" s="11"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -7121,7 +7783,7 @@
       <c r="AG38" s="11"/>
       <c r="AH38" s="11"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -7252,7 +7914,7 @@
       <c r="AG39" s="11"/>
       <c r="AH39" s="11"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -7383,7 +8045,7 @@
       <c r="AG40" s="11"/>
       <c r="AH40" s="11"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -7514,7 +8176,7 @@
       <c r="AG41" s="11"/>
       <c r="AH41" s="11"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -7645,7 +8307,7 @@
       <c r="AG42" s="11"/>
       <c r="AH42" s="11"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -7776,7 +8438,7 @@
       <c r="AG43" s="11"/>
       <c r="AH43" s="11"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -7907,7 +8569,7 @@
       <c r="AG44" s="11"/>
       <c r="AH44" s="11"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -8038,7 +8700,7 @@
       <c r="AG45" s="11"/>
       <c r="AH45" s="11"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -8169,7 +8831,7 @@
       <c r="AG46" s="11"/>
       <c r="AH46" s="11"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -8300,7 +8962,7 @@
       <c r="AG47" s="11"/>
       <c r="AH47" s="11"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -8431,7 +9093,7 @@
       <c r="AG48" s="11"/>
       <c r="AH48" s="11"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -8562,7 +9224,7 @@
       <c r="AG49" s="11"/>
       <c r="AH49" s="11"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -8693,7 +9355,7 @@
       <c r="AG50" s="11"/>
       <c r="AH50" s="11"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -8824,7 +9486,7 @@
       <c r="AG51" s="11"/>
       <c r="AH51" s="11"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -8955,7 +9617,7 @@
       <c r="AG52" s="11"/>
       <c r="AH52" s="11"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -9086,7 +9748,7 @@
       <c r="AG53" s="11"/>
       <c r="AH53" s="11"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -9121,7 +9783,7 @@
       <c r="AG54" s="11"/>
       <c r="AH54" s="11"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -9219,7 +9881,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -9350,7 +10012,7 @@
       <c r="AG56" s="11"/>
       <c r="AH56" s="11"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -9481,7 +10143,7 @@
       <c r="AG57" s="11"/>
       <c r="AH57" s="11"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -9612,7 +10274,7 @@
       <c r="AG58" s="11"/>
       <c r="AH58" s="11"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -9743,7 +10405,7 @@
       <c r="AG59" s="11"/>
       <c r="AH59" s="11"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -9874,7 +10536,7 @@
       <c r="AG60" s="11"/>
       <c r="AH60" s="11"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -10005,7 +10667,7 @@
       <c r="AG61" s="11"/>
       <c r="AH61" s="11"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -10136,7 +10798,7 @@
       <c r="AG62" s="11"/>
       <c r="AH62" s="11"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -10267,7 +10929,7 @@
       <c r="AG63" s="11"/>
       <c r="AH63" s="11"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -10398,7 +11060,7 @@
       <c r="AG64" s="11"/>
       <c r="AH64" s="11"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -10529,7 +11191,7 @@
       <c r="AG65" s="11"/>
       <c r="AH65" s="11"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -10660,7 +11322,7 @@
       <c r="AG66" s="11"/>
       <c r="AH66" s="11"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -10791,7 +11453,7 @@
       <c r="AG67" s="11"/>
       <c r="AH67" s="11"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -10922,7 +11584,7 @@
       <c r="AG68" s="11"/>
       <c r="AH68" s="11"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -11053,7 +11715,7 @@
       <c r="AG69" s="11"/>
       <c r="AH69" s="11"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -11184,7 +11846,7 @@
       <c r="AG70" s="11"/>
       <c r="AH70" s="11"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -11315,7 +11977,7 @@
       <c r="AG71" s="11"/>
       <c r="AH71" s="11"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -11446,7 +12108,7 @@
       <c r="AG72" s="11"/>
       <c r="AH72" s="11"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -11577,7 +12239,7 @@
       <c r="AG73" s="11"/>
       <c r="AH73" s="11"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -11708,7 +12370,7 @@
       <c r="AG74" s="11"/>
       <c r="AH74" s="11"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -11839,7 +12501,7 @@
       <c r="AG75" s="11"/>
       <c r="AH75" s="11"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -11970,7 +12632,7 @@
       <c r="AG76" s="11"/>
       <c r="AH76" s="11"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -12101,7 +12763,7 @@
       <c r="AG77" s="11"/>
       <c r="AH77" s="11"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A79" s="1" t="s">
         <v>102</v>
       </c>
@@ -12199,7 +12861,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -12328,7 +12990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -12457,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -12586,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -12715,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -12844,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -12973,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -13102,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -13231,7 +13893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -13360,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -13489,7 +14151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -13618,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -13747,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -13876,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -14005,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -14134,7 +14796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -14263,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -14392,7 +15054,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -14521,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>32</v>
       </c>
@@ -14650,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -14779,7 +15441,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>74</v>
       </c>
@@ -14908,7 +15570,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>72</v>
       </c>
@@ -15037,7 +15699,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -15135,7 +15797,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.75">
       <c r="C104" s="13">
         <f>SUMPRODUCT(C80:C101,B56:B77)/SUM(B56:B77)</f>
         <v>7491.2019000999289</v>
@@ -15283,23 +15945,23 @@
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" customWidth="1"/>
     <col min="16" max="16" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="25" t="s">
         <v>90</v>
       </c>
@@ -15348,7 +16010,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -15393,7 +16055,7 @@
         <v>0.506558531141579</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -15441,7 +16103,7 @@
         <v>3.9217017138996661E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -15489,7 +16151,7 @@
         <v>2.2475794205762668E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -15534,7 +16196,7 @@
         <v>8.3290977797280619E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -15579,7 +16241,7 @@
         <v>5.2458778329539747E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -15624,7 +16286,7 @@
         <v>3.6405767087696481E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -15666,7 +16328,7 @@
         <v>7.6907656512913439E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -15711,7 +16373,7 @@
         <v>3.654151526535612E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -15744,7 +16406,7 @@
         <v>3.159933451823603E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -15780,7 +16442,7 @@
         <v>2.6854462168877047E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -15819,7 +16481,7 @@
         <v>2.3072454800592241E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -15855,7 +16517,7 @@
         <v>4.0201980660620085E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -15897,7 +16559,7 @@
         <v>1.8832691949501677E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -15936,7 +16598,7 @@
         <v>2.6478786979539908E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -15975,7 +16637,7 @@
         <v>8.0028286131903035E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -16023,7 +16685,7 @@
         <v>3.5515511596998389E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -16071,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -16098,7 +16760,7 @@
         <v>2.6281478581778807E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -16125,7 +16787,7 @@
         <v>4.1324270827085233E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -16143,7 +16805,7 @@
         <v>5.9350366046539526E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -16161,7 +16823,7 @@
         <v>1.0260036683577312E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -16179,7 +16841,7 @@
         <v>1.831021931223028E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -16223,12 +16885,12 @@
         <v>2693068</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A30" s="25" t="s">
         <v>90</v>
       </c>
@@ -16276,7 +16938,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -16322,7 +16984,7 @@
         <v>0.69848904985569582</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -16371,7 +17033,7 @@
         <v>5.4041171323724657E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -16420,7 +17082,7 @@
         <v>3.0991672579584979E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -16466,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -16512,7 +17174,7 @@
         <v>5.9247441483874057E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -16558,7 +17220,7 @@
         <v>7.5852222023915757E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -16601,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -16647,7 +17309,7 @@
         <v>2.1765343478885439E-6</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -16681,7 +17343,7 @@
         <v>2.4107294437213513E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -16718,7 +17380,7 @@
         <v>2.3626280346330145E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -16758,7 +17420,7 @@
         <v>1.8972849910544438E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -16795,7 +17457,7 @@
         <v>2.146715827322471E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -16838,7 +17500,7 @@
         <v>2.0500777022762196E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -16878,7 +17540,7 @@
         <v>3.6511363685830328E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -16918,7 +17580,7 @@
         <v>9.3373323524418542E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -16967,7 +17629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -17016,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -17044,7 +17706,7 @@
         <v>2.3114794774576337E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -17063,7 +17725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -17082,7 +17744,7 @@
         <v>8.1837691480609253E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -17101,7 +17763,7 @@
         <v>1.4147473261275537E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -17120,7 +17782,7 @@
         <v>2.5247798435507112E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -17173,12 +17835,12 @@
         <v>269433</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A57" s="25" t="s">
         <v>90</v>
       </c>
@@ -17226,7 +17888,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -17287,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -17348,7 +18010,7 @@
         <v>9.1911764705882352E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -17409,7 +18071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -17470,7 +18132,7 @@
         <v>0.30311925551470587</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -17531,7 +18193,7 @@
         <v>3.4541590073529409E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -17592,7 +18254,7 @@
         <v>0.11247127757352941</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -17653,7 +18315,7 @@
         <v>0.27988855698529413</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -17714,7 +18376,7 @@
         <v>1.3292738970588235E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -17775,7 +18437,7 @@
         <v>5.1372931985294121E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -17836,7 +18498,7 @@
         <v>3.5374540441176473E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -17897,7 +18559,7 @@
         <v>3.3892463235294115E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -17958,7 +18620,7 @@
         <v>8.9648437499999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -18019,7 +18681,7 @@
         <v>1.443014705882353E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -18080,7 +18742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -18141,7 +18803,7 @@
         <v>4.4806985294117645E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>29</v>
       </c>
@@ -18202,7 +18864,7 @@
         <v>1.2925091911764705E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -18263,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -18324,7 +18986,7 @@
         <v>3.463924632352941E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -18385,7 +19047,7 @@
         <v>1.50390625E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -18446,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -18507,7 +19169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -18568,7 +19230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -18633,16 +19295,16 @@
   </sheetPr>
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="15.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
@@ -18740,37 +19402,37 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="9">
         <f>Summary!C38</f>
-        <v>7089.0804836407387</v>
+        <v>8863.301826628478</v>
       </c>
       <c r="C2" s="9">
         <f>Summary!D38</f>
-        <v>7096.2738526461635</v>
+        <v>8870.4951956339028</v>
       </c>
       <c r="D2" s="9">
         <f>Summary!E38</f>
-        <v>4060.6060287258383</v>
+        <v>5834.8273717135789</v>
       </c>
       <c r="E2" s="9">
         <f>Summary!F38</f>
-        <v>1866.417433175201</v>
+        <v>3197.0834404160064</v>
       </c>
       <c r="F2" s="9">
         <f>Summary!G38</f>
-        <v>1282.0199650437494</v>
+        <v>2612.6859722845547</v>
       </c>
       <c r="G2" s="9">
         <f>Summary!H38</f>
-        <v>864.64370703529585</v>
+        <v>2195.3097142761012</v>
       </c>
       <c r="H2" s="9">
         <f>Summary!I38</f>
-        <v>744.07885409868288</v>
+        <v>2074.7448613394881</v>
       </c>
       <c r="I2" s="9">
         <f>Summary!J38</f>
@@ -18869,7 +19531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -18967,7 +19629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -19065,7 +19727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -19163,7 +19825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -19261,7 +19923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -19375,12 +20037,12 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
@@ -19478,7 +20140,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -19576,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -19674,7 +20336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -19772,7 +20434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -19870,7 +20532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -19968,7 +20630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>21</v>
       </c>
